--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value715.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value715.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.330018127845676</v>
+        <v>1.603458523750305</v>
       </c>
       <c r="B1">
-        <v>2.191786885885893</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.238240242004395</v>
       </c>
       <c r="D1">
-        <v>1.842924687504947</v>
+        <v>1.260423898696899</v>
       </c>
       <c r="E1">
-        <v>0.8705910207833231</v>
+        <v>0.8281568884849548</v>
       </c>
     </row>
   </sheetData>
